--- a/delta2/lib_e/eid-art.xlsx
+++ b/delta2/lib_e/eid-art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8372AB7B-2F00-2546-9BA8-EEAEDB6D796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3B552-A0B9-624A-B45F-2B855616635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="397" r:id="rId12"/>
-    <pivotCache cacheId="398" r:id="rId13"/>
-    <pivotCache cacheId="399" r:id="rId14"/>
-    <pivotCache cacheId="400" r:id="rId15"/>
+    <pivotCache cacheId="425" r:id="rId12"/>
+    <pivotCache cacheId="426" r:id="rId13"/>
+    <pivotCache cacheId="427" r:id="rId14"/>
+    <pivotCache cacheId="428" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="214">
   <si>
     <t>delta_pid</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>(blank)</t>
-  </si>
-  <si>
-    <t>account</t>
   </si>
   <si>
     <t>Retrieve Microsoft IIS Service Account Credentials Using AppCmd (using list)</t>
@@ -682,6 +679,62 @@
   </si>
   <si>
     <t>{"uuid": "a0bced08-3fc5-4d8b-93b7-e8344739376e"}</t>
+  </si>
+  <si>
+    <t>bitsadmin.exe /transfer /Download /priority Foreground https://raw.githubusercontent.com/redcanaryco/atomic-red-team/master/atomics/T1197/T1197.md %temp%\bitsadmin1_flag.ps1</t>
+  </si>
+  <si>
+    <t>Bitsadmin Download (cmd)</t>
+  </si>
+  <si>
+    <t>t1197-t01</t>
+  </si>
+  <si>
+    <t>{"uuid": "3c73d728-75fb-4180-a12f-6712864d7421"}</t>
+  </si>
+  <si>
+    <t>Start-BitsTransfer -Priority foreground -Source https://raw.githubusercontent.com/redcanaryco/atomic-red-team/master/atomics/T1197/T1197.md -Destination $env:TEMP\bitsadmin2_flag.ps1</t>
+  </si>
+  <si>
+    <t>Bitsadmin Download (PowerShell)</t>
+  </si>
+  <si>
+    <t>{"uuid": "f63b8bc4-07e5-4112-acba-56f646f3f0bc"}</t>
+  </si>
+  <si>
+    <t>t1197-t02</t>
+  </si>
+  <si>
+    <t>Persist, Download, &amp; Execute</t>
+  </si>
+  <si>
+    <t>bitsadmin.exe /create &lt;bits_job_name&gt;
+bitsadmin.exe /addfile &lt;bits_job_name&gt; &lt;remote_file&gt; &lt;local_file&gt;
+bitsadmin.exe /setnotifycmdline &lt;bits_job_name&gt; &lt;command_path&gt; NULL
+bitsadmin.exe /resume &lt;bits_job_name&gt;
+ping -n 5 127.0.0.1 &gt;nul 2&gt;&amp;1
+bitsadmin.exe /complete &lt;bits_job_name&gt;</t>
+  </si>
+  <si>
+    <t>t1197-t03</t>
+  </si>
+  <si>
+    <t>{"uuid": "62a06ec5-5754-47d2-bcfc-123d8314c6ae"}</t>
+  </si>
+  <si>
+    <t>Bits download using desktopimgdownldr.exe (cmd)</t>
+  </si>
+  <si>
+    <t>set SYSTEMROOT=C:\Windows\Temp &amp;&amp; cmd /c desktopimgdownldr.exe /lockscreenurl:https://raw.githubusercontent.com/redcanaryco/atomic-red-team/master/atomics/T1197/T1197.md /eventName:desktopimgdownldr</t>
+  </si>
+  <si>
+    <t>t1197-t04</t>
+  </si>
+  <si>
+    <t>{"uuid": "afb5e09e-e385-4dee-9a94-6ee60979d114"}</t>
+  </si>
+  <si>
+    <t>process_account</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1267,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="400" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="428" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -1292,7 +1345,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="399" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="427" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -1357,7 +1410,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="398" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="426" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -1424,7 +1477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="397" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="425" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -1498,8 +1551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}" name="Table1" displayName="Table1" ref="A1:M39" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:M39" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}" name="Table1" displayName="Table1" ref="A1:M43" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:M43" xr:uid="{B6B8DB85-BB20-8546-B15A-D0F5310E33C2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M33">
     <sortCondition ref="L1:L33"/>
   </sortState>
@@ -1513,7 +1566,7 @@
     <tableColumn id="9" xr3:uid="{77731B4F-413A-9A48-9E34-761BA28F57CC}" name="initiating_process_name"/>
     <tableColumn id="10" xr3:uid="{D14102FB-89EB-6E41-B3EA-523646DB8A53}" name="process_path"/>
     <tableColumn id="11" xr3:uid="{D06C5568-EEDD-0B40-B52A-8462826FD229}" name="initiating_process_path" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{B696AE98-F833-4348-8A2A-083681C93892}" name="account"/>
+    <tableColumn id="12" xr3:uid="{B696AE98-F833-4348-8A2A-083681C93892}" name="process_account"/>
     <tableColumn id="13" xr3:uid="{DEC979B5-A396-F945-A221-01278C4EA968}" name="object"/>
     <tableColumn id="2" xr3:uid="{5E711B7D-ECDB-7046-8B8E-DD3FAE345EC0}" name="test"/>
     <tableColumn id="14" xr3:uid="{768D574A-4DC6-E84B-8CD2-121E544083BD}" name="ns_meta" dataDxfId="16"/>
@@ -1950,11 +2003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,7 +2021,7 @@
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="45" style="1" bestFit="1" customWidth="1"/>
@@ -1985,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -2003,13 +2056,13 @@
         <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>7</v>
@@ -2018,575 +2071,635 @@
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1"/>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1"/>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1"/>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1"/>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1"/>
       <c r="L6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1"/>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1"/>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1"/>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="1"/>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1"/>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1"/>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="1"/>
       <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1"/>
       <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="221" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1"/>
       <c r="L16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="51" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="1"/>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1"/>
       <c r="L18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1"/>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="51" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E20" s="1"/>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1"/>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="68" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E22" s="1"/>
       <c r="L22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1"/>
       <c r="L23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="51" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="1"/>
       <c r="L24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="1"/>
       <c r="L25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="1"/>
       <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="51" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="1"/>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E28" s="1"/>
       <c r="L28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E29" s="1"/>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E30" s="1"/>
       <c r="L30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" s="1"/>
       <c r="L31" t="s">
+        <v>159</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E32" s="1"/>
       <c r="L32" t="s">
+        <v>163</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1"/>
       <c r="L33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="34" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1"/>
       <c r="L34" t="s">
+        <v>175</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E35" s="1"/>
       <c r="L35" t="s">
+        <v>179</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E36" s="1"/>
       <c r="L36" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E37" s="1"/>
       <c r="L37" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" s="1"/>
       <c r="L38" t="s">
+        <v>191</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="39" spans="3:13" ht="17" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E39" s="1"/>
       <c r="L39" t="s">
+        <v>195</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M39" s="1" t="s">
+    </row>
+    <row r="40" spans="3:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>197</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="L40" t="s">
+        <v>199</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="L41" t="s">
+        <v>204</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="L42" t="s">
+        <v>207</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="L43" t="s">
+        <v>211</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3048,10 +3161,10 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
